--- a/Inter Frequency - Reselection/Input_Parameter.xlsx
+++ b/Inter Frequency - Reselection/Input_Parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\4G-LTE-Idle-Mode-Load-Balance\Inter Frequency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\4G-LTE-Idle-Mode-Load-Balance\Inter Frequency - Reselection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E347E029-B34E-4080-A794-FAFEACB0006A}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D1A0680-FFEC-4EC0-9702-EB5BE5BFB0A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
